--- a/excel-write/0_input/ii.xlsx
+++ b/excel-write/0_input/ii.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teeth\github\powershell-try\excel-write\0_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE0AFBE-B511-4DDB-9BF0-3D5F39DB1C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8F7171-E80E-4F0C-9AFA-DAC3A0E36C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="490" windowWidth="14400" windowHeight="8750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -72,8 +72,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -354,26 +355,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47A30D6-4CA4-4BF2-8A05-30F9496C441A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1">
+        <v>45599</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
